--- a/data/trans_dic/P22$ss-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P22$ss-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.9776825200512355</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.9705723989725773</v>
+        <v>0.9705723989725775</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.9639298235810757</v>
@@ -697,7 +697,7 @@
         <v>0.9755449318720778</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.9713807101397168</v>
+        <v>0.9713807101397166</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8768805463085997</v>
+        <v>0.873286702368599</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9090957099481006</v>
+        <v>0.9080362318305294</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9509015743816436</v>
+        <v>0.9525197680124577</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.9472079577828607</v>
+        <v>0.9459837489865754</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.9336761279768807</v>
+        <v>0.9323698099758346</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.9429293600062849</v>
+        <v>0.9417158499211374</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.9482428690962957</v>
+        <v>0.9475081644975059</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.9579150828193509</v>
+        <v>0.9569191319222072</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.9150522121762914</v>
+        <v>0.9173328894787386</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.9357249664361156</v>
+        <v>0.9361420920793581</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.9571762985420192</v>
+        <v>0.9565194371929263</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.9595924678278382</v>
+        <v>0.9592397927907513</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.946749993926967</v>
+        <v>0.947816993667577</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9675575061520492</v>
+        <v>0.9687924770712379</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9907719343646223</v>
+        <v>0.9904479356020516</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9853686964649275</v>
+        <v>0.98398301907866</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.983130245979288</v>
+        <v>0.9833349097549713</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.985622080547396</v>
+        <v>0.9853968907358893</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9889226172627845</v>
+        <v>0.9895235274033825</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9828073724309674</v>
+        <v>0.9824126830368649</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9583971339170171</v>
+        <v>0.9579037987208522</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.9729066723559512</v>
+        <v>0.9715558414012069</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.986345015259759</v>
+        <v>0.9860757348208713</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.9811444269260141</v>
+        <v>0.98083205566071</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.9671921774530093</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.9745214798438881</v>
+        <v>0.9745214798438884</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.9576823243358119</v>
@@ -833,7 +833,7 @@
         <v>0.9741314968846403</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.9708910222394384</v>
+        <v>0.9708910222394385</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.9389993142213532</v>
+        <v>0.9387062885183522</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9098170500348913</v>
+        <v>0.9110180412266244</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.9657411024604763</v>
+        <v>0.9645031728349075</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.9435336331960453</v>
+        <v>0.9429916256498645</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.9353288814415461</v>
+        <v>0.9354269494122804</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.9150307762445639</v>
+        <v>0.9194138182086962</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.9481310403998245</v>
+        <v>0.9470275645418262</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.9603914329122422</v>
+        <v>0.9602388097785607</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.9433227585142441</v>
+        <v>0.942017847863452</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.9218883642154678</v>
+        <v>0.9219773637787715</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.9631175794053413</v>
+        <v>0.9629457652370664</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.9570611634929248</v>
+        <v>0.9584154202277031</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9749043050382196</v>
+        <v>0.9744058519612488</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9607926749778558</v>
+        <v>0.9632999743571287</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9898294744806313</v>
+        <v>0.9916949245832124</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9825534568330445</v>
+        <v>0.9819547583165779</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9718702948114354</v>
+        <v>0.9714975018932117</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.9628049701200435</v>
+        <v>0.9639504438813714</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9814367151585998</v>
+        <v>0.9800070193523338</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.9838245105997258</v>
+        <v>0.9841761164787041</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.9704067868924848</v>
+        <v>0.9685110116903874</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.9554988622219757</v>
+        <v>0.9561133699127183</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.9834438056444322</v>
+        <v>0.9832291945165327</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.9797330385643379</v>
+        <v>0.9810447447930206</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.9453386179993366</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.9782248558905073</v>
+        <v>0.978224855890507</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9393424313752069</v>
+        <v>0.9422252523403939</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.916649618169434</v>
+        <v>0.9181594309546331</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8931887711160282</v>
+        <v>0.8931196085158504</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.9427817636319319</v>
+        <v>0.9420637774628009</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.9591207129161358</v>
+        <v>0.9560704962328554</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.9440276830995185</v>
+        <v>0.9458664624057357</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.9400326586128265</v>
+        <v>0.9408857199388481</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.9743406526613372</v>
+        <v>0.9743644522458322</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.9549600316173746</v>
+        <v>0.9564119348093624</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.9434028699275492</v>
+        <v>0.9433370866469768</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.9266500371717251</v>
+        <v>0.9270357695687202</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.9655519769245101</v>
+        <v>0.9635733843635984</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9824328058217885</v>
+        <v>0.9847543255588843</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9699695050049583</v>
+        <v>0.9704453974477127</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9511348135661417</v>
+        <v>0.949968362068719</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9852542190947339</v>
+        <v>0.9861035874841872</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9916090350541452</v>
+        <v>0.9894368015101467</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9886212362966315</v>
+        <v>0.9869910777651346</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9786175758415907</v>
+        <v>0.9810000403727601</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9937184094192496</v>
+        <v>0.99350107923425</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9828582226295624</v>
+        <v>0.9827861203736096</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.9750967457669985</v>
+        <v>0.9740490563481323</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.9605772816697556</v>
+        <v>0.9602961253712349</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.9869248561978875</v>
+        <v>0.9866734305132634</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.9763983353319731</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.9614922132649539</v>
+        <v>0.961492213264954</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.9497535865428355</v>
@@ -1105,7 +1105,7 @@
         <v>0.9648264410496182</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.9517865463762769</v>
+        <v>0.9517865463762767</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.904431704754069</v>
+        <v>0.9030776639603739</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8977406574401314</v>
+        <v>0.8973364570882905</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9255910501982254</v>
+        <v>0.9271969262987027</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9101298481880067</v>
+        <v>0.9091871234538351</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9378252057430919</v>
+        <v>0.9374499002183678</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.9250510471285819</v>
+        <v>0.9274582394807263</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9534969969605777</v>
+        <v>0.9521844196989507</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.9423195933834022</v>
+        <v>0.9425964133214749</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.931589637705895</v>
+        <v>0.9302378371603184</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.9189776127863684</v>
+        <v>0.9194040553524742</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.9458211696974689</v>
+        <v>0.9469888769178465</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.9354718085585573</v>
+        <v>0.9326169469825426</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9630387323087436</v>
+        <v>0.9603163238707335</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9589159226236742</v>
+        <v>0.955289737256913</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9723584855376001</v>
+        <v>0.9738939753391777</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9640294334176077</v>
+        <v>0.9627033022923015</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9794213514414577</v>
+        <v>0.9765718470870276</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.9682949398254921</v>
+        <v>0.9701750808274783</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.990336132092126</v>
+        <v>0.989591146262531</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.9745878457986829</v>
+        <v>0.9746597714568094</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.9642740739271028</v>
+        <v>0.9639970689147213</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.9561703737371424</v>
+        <v>0.9561008385947936</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.9777091822225963</v>
+        <v>0.9767253747413105</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.9647456596724414</v>
+        <v>0.9645533272979265</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.9840228573645019</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.9764788096743816</v>
+        <v>0.9764788096743813</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.9291155712121806</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.9028049157796237</v>
+        <v>0.9025958869854663</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9515226587490604</v>
+        <v>0.9466000818915935</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9031707387015417</v>
+        <v>0.8953633795478576</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9426958748851495</v>
+        <v>0.9438139819564365</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.8646678709851058</v>
+        <v>0.8638013406955767</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.9427463882935395</v>
+        <v>0.9404797880124828</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9637887856610078</v>
+        <v>0.9632535592107693</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.9601067002391659</v>
+        <v>0.9605756155894261</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.8967248686396381</v>
+        <v>0.8967583557732114</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.9572605791213008</v>
+        <v>0.9572031311920489</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.9443206249230037</v>
+        <v>0.943759235910112</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.9566328486550136</v>
+        <v>0.9579625673347886</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9701837756590818</v>
+        <v>0.9718337603806891</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.990775947156726</v>
+        <v>0.9907836008792518</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9767459391473576</v>
+        <v>0.9738939912447423</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.983346941570973</v>
+        <v>0.9841619932157709</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9469802923296465</v>
+        <v>0.9476094156539815</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.9902310461706487</v>
+        <v>0.9905499774169289</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9960140663748517</v>
+        <v>0.9959877102110658</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9868870982081466</v>
+        <v>0.9882546984434417</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.9519038391763466</v>
+        <v>0.9515163017224851</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.9862922155295241</v>
+        <v>0.9863435278830356</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.9818383828407935</v>
+        <v>0.9818265115297851</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.9823791032982978</v>
+        <v>0.9819731620457888</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.9860699153013002</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.9766170728119888</v>
+        <v>0.9766170728119884</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.9538535243518671</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.9034136649190848</v>
+        <v>0.9062397008437977</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.9143001574561302</v>
+        <v>0.9120136203211463</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9152582290193265</v>
+        <v>0.9122248850817191</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9624069420251534</v>
+        <v>0.9637400159851051</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9397022211905608</v>
+        <v>0.9405359543170024</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.9428057769283449</v>
+        <v>0.9422677039049523</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.9619688095464949</v>
+        <v>0.967806581025638</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.9592591700800146</v>
+        <v>0.9589816111723314</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.9348598136092062</v>
+        <v>0.933953818237773</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.9417892418590523</v>
+        <v>0.9398023052341209</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.9476968063883356</v>
+        <v>0.9499338866470372</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.9663497827816502</v>
+        <v>0.9675345171802108</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9627850856117077</v>
+        <v>0.9632041266609009</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9782600309287069</v>
+        <v>0.9773163329452337</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.975709587318073</v>
+        <v>0.9739966128822315</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9889317299894897</v>
+        <v>0.9887744167185143</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9846685509593536</v>
+        <v>0.9851035455093453</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.9889996940340081</v>
+        <v>0.9885445098328143</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9962480312958834</v>
+        <v>0.9965557112625566</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.9866072089495241</v>
+        <v>0.9866515623664462</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.9711746280960017</v>
+        <v>0.9689893196897116</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.9778194088617653</v>
+        <v>0.9786869226623722</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.9807589739384913</v>
+        <v>0.982215646621351</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.9854439580464253</v>
+        <v>0.9853367068105037</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.9321840108760883</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.9540940012047621</v>
+        <v>0.9540940012047622</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.9609581374302874</v>
@@ -1501,7 +1501,7 @@
         <v>0.9516772962043869</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.9648790135525307</v>
+        <v>0.9648790135525308</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.9653437335232625</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.9531849299898413</v>
+        <v>0.9511223097592794</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.9426966502381044</v>
+        <v>0.9409161883175755</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.9059287913781241</v>
+        <v>0.9058218536571087</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.9277759978062321</v>
+        <v>0.924000188921046</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9424482841675003</v>
+        <v>0.9418335261964856</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.9537419633185739</v>
+        <v>0.9497072111270751</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.9345936226616987</v>
+        <v>0.9345462813714281</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.948204045245713</v>
+        <v>0.9477182223571016</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.9521432024346232</v>
+        <v>0.9537664442882798</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.9525133295956721</v>
+        <v>0.9531975744919133</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.9278433735889579</v>
+        <v>0.9282773137451696</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.9446137534090585</v>
+        <v>0.9447833117806921</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9811954344475123</v>
+        <v>0.9814600448301817</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.974565197588722</v>
+        <v>0.9753531520083353</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9504043972984002</v>
+        <v>0.9501982097315606</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9709101991372525</v>
+        <v>0.9703980575092195</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9746244365524069</v>
+        <v>0.9745437134572508</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.9828193707778831</v>
+        <v>0.9811431966293476</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9663018756812478</v>
+        <v>0.9666841396489765</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.9771880386255549</v>
+        <v>0.976550085817979</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.9744593349472352</v>
+        <v>0.9754228639295254</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.97555761879518</v>
+        <v>0.9745114849005965</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.9542282851851099</v>
+        <v>0.9550084127673747</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.9702939456375834</v>
+        <v>0.9700450485572205</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.9613559290168953</v>
+        <v>0.9610745339192948</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.9427927414180991</v>
+        <v>0.9431278475336022</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.9328269228186266</v>
+        <v>0.9332240774437714</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.9458329363046634</v>
+        <v>0.9453290220660009</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.9187381569238384</v>
+        <v>0.919628703842441</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.9491176002679943</v>
+        <v>0.9484725214711672</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.9372209378515747</v>
+        <v>0.9372467352734748</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.9475809236108796</v>
+        <v>0.9483746472095292</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.9448196680091965</v>
+        <v>0.9443658472333157</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.951712375281819</v>
+        <v>0.9513372207932884</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.9400820535472494</v>
+        <v>0.9395271395910807</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.9508834842499014</v>
+        <v>0.9513635941141845</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.9846294197555445</v>
+        <v>0.9846694090227296</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.9759220978711061</v>
+        <v>0.9751148803810492</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.9644132096248825</v>
+        <v>0.9641813874434662</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.9743098235348419</v>
+        <v>0.9733603625230915</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.9536404513555903</v>
+        <v>0.9554870854111996</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.9790604979241474</v>
+        <v>0.9782683913612326</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.9679243689842482</v>
+        <v>0.9683793935456771</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.971335246309958</v>
+        <v>0.9721608607870903</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.9657633799663222</v>
+        <v>0.965662445172343</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.9738134289589753</v>
+        <v>0.9728510829421518</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.9628075281182584</v>
+        <v>0.9623821629258463</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.9698792152695918</v>
+        <v>0.9699655396410262</v>
       </c>
     </row>
     <row r="28">
@@ -1761,7 +1761,7 @@
         <v>0.9515954647590791</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.9619083425747701</v>
+        <v>0.9619083425747702</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.9544765500765502</v>
@@ -1785,7 +1785,7 @@
         <v>0.9583738419370593</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.9657572617396064</v>
+        <v>0.9657572617396059</v>
       </c>
     </row>
     <row r="29">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.9493839119671962</v>
+        <v>0.9502506080233234</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.9439607951321279</v>
+        <v>0.9442063685846567</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.9432054401060885</v>
+        <v>0.9431875412654169</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.9540040670453275</v>
+        <v>0.9542014120659532</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.9469089977823972</v>
+        <v>0.9470478825646441</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.9559400007053569</v>
+        <v>0.9560654682590035</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.9578962820092572</v>
+        <v>0.9579074994260827</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.9641132745697284</v>
+        <v>0.9635891255697051</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.9505020273363908</v>
+        <v>0.9504289178138369</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.9527478867812453</v>
+        <v>0.9525985522300324</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.9529160318129805</v>
+        <v>0.9534782643318644</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.9607290364309763</v>
+        <v>0.9617098517384145</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.9640961156346951</v>
+        <v>0.9646783332474834</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.9601721765670036</v>
+        <v>0.9601894539285974</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.9590063049403162</v>
+        <v>0.9587959736979185</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.9687639038014335</v>
+        <v>0.9687058471535476</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.961179340605036</v>
+        <v>0.9613449595276896</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.9697344348855507</v>
+        <v>0.9704120139096609</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.9703071076162629</v>
+        <v>0.9711322988752402</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.9741966838319767</v>
+        <v>0.9741308580848852</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.9608768266558636</v>
+        <v>0.9611002982683936</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.9631725685931765</v>
+        <v>0.962848447957984</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.9627314810165738</v>
+        <v>0.9630861192409064</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.9698289288510861</v>
+        <v>0.9702904492206458</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>238584</v>
+        <v>237606</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>267945</v>
+        <v>267633</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>279338</v>
+        <v>279813</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>302013</v>
+        <v>301622</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>243538</v>
+        <v>243197</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>270852</v>
+        <v>270503</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>272832</v>
+        <v>272621</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>302760</v>
+        <v>302445</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>487651</v>
+        <v>488866</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>544576</v>
+        <v>544819</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>556584</v>
+        <v>556202</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>609251</v>
+        <v>609027</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>257595</v>
+        <v>257885</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>285176</v>
+        <v>285540</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>291050</v>
+        <v>290955</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>314180</v>
+        <v>313738</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>256438</v>
+        <v>256491</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>283115</v>
+        <v>283050</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>284537</v>
+        <v>284710</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>310627</v>
+        <v>310502</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>510750</v>
+        <v>510487</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>566215</v>
+        <v>565429</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>573545</v>
+        <v>573388</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>622934</v>
+        <v>622736</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>462997</v>
+        <v>462853</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>459045</v>
+        <v>459651</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>485357</v>
+        <v>484735</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>500683</v>
+        <v>500396</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>471358</v>
+        <v>471407</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>479261</v>
+        <v>481557</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>495952</v>
+        <v>495375</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>524848</v>
+        <v>524765</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>940515</v>
+        <v>939214</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>947988</v>
+        <v>948079</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>987830</v>
+        <v>987654</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1030890</v>
+        <v>1032349</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>480701</v>
+        <v>480455</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>484764</v>
+        <v>486029</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>497464</v>
+        <v>498401</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>521389</v>
+        <v>521071</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>489773</v>
+        <v>489585</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>504284</v>
+        <v>504884</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>513374</v>
+        <v>512626</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>537654</v>
+        <v>537846</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>967519</v>
+        <v>965629</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>982550</v>
+        <v>983182</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>1008678</v>
+        <v>1008458</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>1055311</v>
+        <v>1056724</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>299506</v>
+        <v>300425</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>297037</v>
+        <v>297526</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>282843</v>
+        <v>282822</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>297912</v>
+        <v>297686</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>321701</v>
+        <v>320678</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>321932</v>
+        <v>322559</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>316141</v>
+        <v>316428</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>347236</v>
+        <v>347245</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>624790</v>
+        <v>625740</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>627425</v>
+        <v>627381</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>605080</v>
+        <v>605332</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>649213</v>
+        <v>647883</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>313245</v>
+        <v>313985</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>314315</v>
+        <v>314469</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>301193</v>
+        <v>300824</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>311333</v>
+        <v>311602</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>332598</v>
+        <v>331869</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>337140</v>
+        <v>336584</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>329118</v>
+        <v>329919</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>354142</v>
+        <v>354065</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>643043</v>
+        <v>642996</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>648504</v>
+        <v>647807</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>627234</v>
+        <v>627050</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>663584</v>
+        <v>663415</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>322443</v>
+        <v>321961</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>335739</v>
+        <v>335588</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>342435</v>
+        <v>343029</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>339610</v>
+        <v>339259</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>347566</v>
+        <v>347427</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>359800</v>
+        <v>360736</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>369273</v>
+        <v>368765</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>397622</v>
+        <v>397739</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>677381</v>
+        <v>676398</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>701118</v>
+        <v>701444</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>716220</v>
+        <v>717104</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>743800</v>
+        <v>741530</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>343338</v>
+        <v>342367</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>358617</v>
+        <v>357261</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>359738</v>
+        <v>360306</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>359723</v>
+        <v>359228</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>362982</v>
+        <v>361926</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>376619</v>
+        <v>377351</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>383540</v>
+        <v>383252</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>411238</v>
+        <v>411268</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>701147</v>
+        <v>700945</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>729494</v>
+        <v>729441</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>740367</v>
+        <v>739622</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>767076</v>
+        <v>766923</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>183547</v>
+        <v>183505</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>202311</v>
+        <v>201264</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>190769</v>
+        <v>189120</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>193880</v>
+        <v>194110</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>179564</v>
+        <v>179384</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>207019</v>
+        <v>206521</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>210672</v>
+        <v>210555</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>218151</v>
+        <v>218257</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>368532</v>
+        <v>368546</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>413737</v>
+        <v>413712</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>405877</v>
+        <v>405635</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>414106</v>
+        <v>414682</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>197246</v>
+        <v>197582</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>210657</v>
+        <v>210658</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>206309</v>
+        <v>205707</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>202240</v>
+        <v>202408</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>196658</v>
+        <v>196788</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>217446</v>
+        <v>217516</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>217716</v>
+        <v>217710</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>224236</v>
+        <v>224546</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>391210</v>
+        <v>391050</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>426284</v>
+        <v>426307</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>422002</v>
+        <v>421997</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>425251</v>
+        <v>425076</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>244654</v>
+        <v>245420</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>250501</v>
+        <v>249874</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>240825</v>
+        <v>240027</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>260530</v>
+        <v>260891</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>261373</v>
+        <v>261604</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>264015</v>
+        <v>263864</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>262728</v>
+        <v>264322</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>253005</v>
+        <v>252931</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>513196</v>
+        <v>512699</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>521763</v>
+        <v>520662</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>508191</v>
+        <v>509391</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>516472</v>
+        <v>517106</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>260733</v>
+        <v>260846</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>268025</v>
+        <v>267766</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>256732</v>
+        <v>256281</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>267711</v>
+        <v>267668</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>273880</v>
+        <v>274001</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>276951</v>
+        <v>276823</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>272090</v>
+        <v>272174</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>260218</v>
+        <v>260229</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>533131</v>
+        <v>531932</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>541724</v>
+        <v>542204</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>525920</v>
+        <v>526701</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>526677</v>
+        <v>526620</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>585278</v>
+        <v>584012</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>624808</v>
+        <v>623628</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>592063</v>
+        <v>591994</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>667708</v>
+        <v>664991</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>600376</v>
+        <v>599985</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>661757</v>
+        <v>658957</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>641569</v>
+        <v>641536</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>731057</v>
+        <v>730682</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1191191</v>
+        <v>1193222</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>1292219</v>
+        <v>1293147</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>1243320</v>
+        <v>1243902</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>1408115</v>
+        <v>1408368</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>602478</v>
+        <v>602640</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>645930</v>
+        <v>646452</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>621130</v>
+        <v>620995</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>698751</v>
+        <v>698383</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>620874</v>
+        <v>620822</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>681932</v>
+        <v>680769</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>663335</v>
+        <v>663598</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>753403</v>
+        <v>752911</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1219110</v>
+        <v>1220315</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>1323481</v>
+        <v>1322062</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>1278676</v>
+        <v>1279722</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>1446396</v>
+        <v>1446025</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>712819</v>
+        <v>712611</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>734528</v>
+        <v>734789</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>726283</v>
+        <v>726592</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>754843</v>
+        <v>754441</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>719841</v>
+        <v>720539</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>781933</v>
+        <v>781402</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>774301</v>
+        <v>774322</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>787069</v>
+        <v>787729</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1440835</v>
+        <v>1440143</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>1525548</v>
+        <v>1524947</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>1508597</v>
+        <v>1507706</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>1548686</v>
+        <v>1549468</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>730076</v>
+        <v>730106</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>760339</v>
+        <v>759710</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>750876</v>
+        <v>750695</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>777569</v>
+        <v>776812</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>747188</v>
+        <v>748635</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>806602</v>
+        <v>805949</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>799667</v>
+        <v>800043</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>806800</v>
+        <v>807486</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1472774</v>
+        <v>1472620</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>1560975</v>
+        <v>1559433</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>1545065</v>
+        <v>1544383</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>1579624</v>
+        <v>1579764</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>3104614</v>
+        <v>3107448</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>3233819</v>
+        <v>3234660</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>3196935</v>
+        <v>3196875</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>3370269</v>
+        <v>3370966</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>3197873</v>
+        <v>3198342</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>3401530</v>
+        <v>3401976</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>3389743</v>
+        <v>3389783</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>3599481</v>
+        <v>3597524</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>6318276</v>
+        <v>6317790</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>6654093</v>
+        <v>6653050</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>6601969</v>
+        <v>6605864</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>6980873</v>
+        <v>6988000</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>3152724</v>
+        <v>3154628</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>3289356</v>
+        <v>3289415</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>3250491</v>
+        <v>3249779</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>3422412</v>
+        <v>3422207</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>3246066</v>
+        <v>3246625</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>3450615</v>
+        <v>3453026</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>3433662</v>
+        <v>3436582</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>3637127</v>
+        <v>3636882</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>6387240</v>
+        <v>6388726</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>6726900</v>
+        <v>6724637</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>6669972</v>
+        <v>6672429</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>7046995</v>
+        <v>7050349</v>
       </c>
     </row>
     <row r="40">
